--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.399219</v>
+        <v>0.60844</v>
       </c>
       <c r="H2">
-        <v>1.197657</v>
+        <v>1.82532</v>
       </c>
       <c r="I2">
-        <v>0.007371893048229459</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="J2">
-        <v>0.00737189304822946</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N2">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O2">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P2">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q2">
-        <v>1.768889752771</v>
+        <v>0.7454286434933334</v>
       </c>
       <c r="R2">
-        <v>15.920007774939</v>
+        <v>6.708857791440001</v>
       </c>
       <c r="S2">
-        <v>0.002631662931425823</v>
+        <v>0.004178221796093474</v>
       </c>
       <c r="T2">
-        <v>0.002631662931425824</v>
+        <v>0.004178221796093474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.399219</v>
+        <v>0.60844</v>
       </c>
       <c r="H3">
-        <v>1.197657</v>
+        <v>1.82532</v>
       </c>
       <c r="I3">
-        <v>0.007371893048229459</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="J3">
-        <v>0.00737189304822946</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N3">
         <v>0.016001</v>
       </c>
       <c r="O3">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P3">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q3">
-        <v>0.002129301073</v>
+        <v>0.003245216146666667</v>
       </c>
       <c r="R3">
-        <v>0.019163709657</v>
+        <v>0.02920694532</v>
       </c>
       <c r="S3">
-        <v>3.167864302951147E-06</v>
+        <v>1.818984681551E-05</v>
       </c>
       <c r="T3">
-        <v>3.167864302951148E-06</v>
+        <v>1.818984681551E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.399219</v>
+        <v>0.60844</v>
       </c>
       <c r="H4">
-        <v>1.197657</v>
+        <v>1.82532</v>
       </c>
       <c r="I4">
-        <v>0.007371893048229459</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="J4">
-        <v>0.00737189304822946</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N4">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O4">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P4">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q4">
-        <v>0.379487201706</v>
+        <v>0.2900009600133334</v>
       </c>
       <c r="R4">
-        <v>3.415384815354</v>
+        <v>2.610008640120001</v>
       </c>
       <c r="S4">
-        <v>0.0005645814840160272</v>
+        <v>0.001625492047551803</v>
       </c>
       <c r="T4">
-        <v>0.0005645814840160274</v>
+        <v>0.001625492047551804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.399219</v>
+        <v>0.60844</v>
       </c>
       <c r="H5">
-        <v>1.197657</v>
+        <v>1.82532</v>
       </c>
       <c r="I5">
-        <v>0.007371893048229459</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="J5">
-        <v>0.00737189304822946</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N5">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O5">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P5">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q5">
-        <v>2.804560715915</v>
+        <v>1.492549155813333</v>
       </c>
       <c r="R5">
-        <v>25.241046443235</v>
+        <v>13.43294240232</v>
       </c>
       <c r="S5">
-        <v>0.004172480768484656</v>
+        <v>0.008365926730874218</v>
       </c>
       <c r="T5">
-        <v>0.004172480768484657</v>
+        <v>0.008365926730874218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>3.099606</v>
       </c>
       <c r="I6">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="J6">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N6">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O6">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P6">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q6">
-        <v>4.577989600551333</v>
+        <v>1.265824675094667</v>
       </c>
       <c r="R6">
-        <v>41.201906404962</v>
+        <v>11.392422075852</v>
       </c>
       <c r="S6">
-        <v>0.00681089678616254</v>
+        <v>0.0070951073502192</v>
       </c>
       <c r="T6">
-        <v>0.006810896786162543</v>
+        <v>0.007095107350219199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3.099606</v>
       </c>
       <c r="I7">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="J7">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N7">
         <v>0.016001</v>
       </c>
       <c r="O7">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P7">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q7">
-        <v>0.005510755067333332</v>
+        <v>0.005510755067333333</v>
       </c>
       <c r="R7">
-        <v>0.04959679560599999</v>
+        <v>0.049596795606</v>
       </c>
       <c r="S7">
-        <v>8.198617133798068E-06</v>
+        <v>3.088847891242942E-05</v>
       </c>
       <c r="T7">
-        <v>8.198617133798071E-06</v>
+        <v>3.088847891242942E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.099606</v>
       </c>
       <c r="I8">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="J8">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N8">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O8">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P8">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q8">
-        <v>0.982134957948</v>
+        <v>0.4924554136606668</v>
       </c>
       <c r="R8">
-        <v>8.839214621531999</v>
+        <v>4.432098722946</v>
       </c>
       <c r="S8">
-        <v>0.00146116973001868</v>
+        <v>0.002760274857857173</v>
       </c>
       <c r="T8">
-        <v>0.00146116973001868</v>
+        <v>0.002760274857857173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.099606</v>
       </c>
       <c r="I9">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="J9">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N9">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O9">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P9">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q9">
-        <v>7.258366312236667</v>
+        <v>2.534522340550667</v>
       </c>
       <c r="R9">
-        <v>65.32529681013</v>
+        <v>22.810701064956</v>
       </c>
       <c r="S9">
-        <v>0.01079862299880488</v>
+        <v>0.01420631817466423</v>
       </c>
       <c r="T9">
-        <v>0.01079862299880488</v>
+        <v>0.01420631817466423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.607736666666668</v>
+        <v>6.042074333333333</v>
       </c>
       <c r="H10">
-        <v>28.82321</v>
+        <v>18.126223</v>
       </c>
       <c r="I10">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="J10">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N10">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O10">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P10">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q10">
-        <v>42.57068660807445</v>
+        <v>7.402431257285111</v>
       </c>
       <c r="R10">
-        <v>383.1361794726701</v>
+        <v>66.621881315566</v>
       </c>
       <c r="S10">
-        <v>0.06333447165732935</v>
+        <v>0.04149156313383453</v>
       </c>
       <c r="T10">
-        <v>0.06333447165732939</v>
+        <v>0.04149156313383453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.607736666666668</v>
+        <v>6.042074333333333</v>
       </c>
       <c r="H11">
-        <v>28.82321</v>
+        <v>18.126223</v>
       </c>
       <c r="I11">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="J11">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N11">
         <v>0.016001</v>
       </c>
       <c r="O11">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P11">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q11">
-        <v>0.05124446480111111</v>
+        <v>0.03222641046922222</v>
       </c>
       <c r="R11">
-        <v>0.46120018321</v>
+        <v>0.290037694223</v>
       </c>
       <c r="S11">
-        <v>7.623887144271234E-05</v>
+        <v>0.0001806331052712807</v>
       </c>
       <c r="T11">
-        <v>7.623887144271237E-05</v>
+        <v>0.0001806331052712807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.607736666666668</v>
+        <v>6.042074333333333</v>
       </c>
       <c r="H12">
-        <v>28.82321</v>
+        <v>18.126223</v>
       </c>
       <c r="I12">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="J12">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N12">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O12">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P12">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q12">
-        <v>9.132864674180002</v>
+        <v>2.879835903521445</v>
       </c>
       <c r="R12">
-        <v>82.19578206762002</v>
+        <v>25.918523131693</v>
       </c>
       <c r="S12">
-        <v>0.01358740497146144</v>
+        <v>0.01614184435531884</v>
       </c>
       <c r="T12">
-        <v>0.01358740497146145</v>
+        <v>0.01614184435531884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.607736666666668</v>
+        <v>6.042074333333333</v>
       </c>
       <c r="H13">
-        <v>28.82321</v>
+        <v>18.126223</v>
       </c>
       <c r="I13">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="J13">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N13">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O13">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P13">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q13">
-        <v>67.4954869988389</v>
+        <v>14.82166350926645</v>
       </c>
       <c r="R13">
-        <v>607.4593829895501</v>
+        <v>133.394971583398</v>
       </c>
       <c r="S13">
-        <v>0.1004163040094072</v>
+        <v>0.08307729796719866</v>
       </c>
       <c r="T13">
-        <v>0.1004163040094073</v>
+        <v>0.08307729796719866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5795316666666666</v>
+        <v>0.4072233333333333</v>
       </c>
       <c r="H14">
-        <v>1.738595</v>
+        <v>1.22167</v>
       </c>
       <c r="I14">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="J14">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N14">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O14">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P14">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q14">
-        <v>2.56783275989611</v>
+        <v>0.4989085809044445</v>
       </c>
       <c r="R14">
-        <v>23.11049483906499</v>
+        <v>4.49017722814</v>
       </c>
       <c r="S14">
-        <v>0.003820289126404537</v>
+        <v>0.002796445676173775</v>
       </c>
       <c r="T14">
-        <v>0.003820289126404538</v>
+        <v>0.002796445676173775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5795316666666666</v>
+        <v>0.4072233333333333</v>
       </c>
       <c r="H15">
-        <v>1.738595</v>
+        <v>1.22167</v>
       </c>
       <c r="I15">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="J15">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N15">
         <v>0.016001</v>
       </c>
       <c r="O15">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P15">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q15">
-        <v>0.003091028732777777</v>
+        <v>0.002171993518888889</v>
       </c>
       <c r="R15">
-        <v>0.02781925859499999</v>
+        <v>0.01954794167</v>
       </c>
       <c r="S15">
-        <v>4.598673107399989E-06</v>
+        <v>1.217429829241125E-05</v>
       </c>
       <c r="T15">
-        <v>4.598673107399991E-06</v>
+        <v>1.217429829241125E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5795316666666666</v>
+        <v>0.4072233333333333</v>
       </c>
       <c r="H16">
-        <v>1.738595</v>
+        <v>1.22167</v>
       </c>
       <c r="I16">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="J16">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N16">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O16">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P16">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q16">
-        <v>0.5508877345099999</v>
+        <v>0.1940949931077778</v>
       </c>
       <c r="R16">
-        <v>4.957989610589999</v>
+        <v>1.74685493797</v>
       </c>
       <c r="S16">
-        <v>0.0008195823555515852</v>
+        <v>0.001087926977041073</v>
       </c>
       <c r="T16">
-        <v>0.0008195823555515853</v>
+        <v>0.001087926977041073</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5795316666666666</v>
+        <v>0.4072233333333333</v>
       </c>
       <c r="H17">
-        <v>1.738595</v>
+        <v>1.22167</v>
       </c>
       <c r="I17">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="J17">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N17">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O17">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P17">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q17">
-        <v>4.071278536247222</v>
+        <v>0.9989495141577778</v>
       </c>
       <c r="R17">
-        <v>36.641506826225</v>
+        <v>8.990545627420001</v>
       </c>
       <c r="S17">
-        <v>0.006057038201825381</v>
+        <v>0.005599238330433626</v>
       </c>
       <c r="T17">
-        <v>0.006057038201825382</v>
+        <v>0.005599238330433626</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.01210333333333</v>
+        <v>31.00247266666667</v>
       </c>
       <c r="H18">
-        <v>75.03631</v>
+        <v>93.007418</v>
       </c>
       <c r="I18">
-        <v>0.4618681743218556</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="J18">
-        <v>0.4618681743218557</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N18">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O18">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P18">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q18">
-        <v>110.8255200318189</v>
+        <v>37.98259671430623</v>
       </c>
       <c r="R18">
-        <v>997.4296802863699</v>
+        <v>341.843370428756</v>
       </c>
       <c r="S18">
-        <v>0.1648804921091571</v>
+        <v>0.2128972569664369</v>
       </c>
       <c r="T18">
-        <v>0.1648804921091572</v>
+        <v>0.2128972569664369</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.01210333333333</v>
+        <v>31.00247266666667</v>
       </c>
       <c r="H19">
-        <v>75.03631</v>
+        <v>93.007418</v>
       </c>
       <c r="I19">
-        <v>0.4618681743218556</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="J19">
-        <v>0.4618681743218557</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N19">
         <v>0.016001</v>
       </c>
       <c r="O19">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P19">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q19">
-        <v>0.1334062218122222</v>
+        <v>0.1653568550464445</v>
       </c>
       <c r="R19">
-        <v>1.20065599631</v>
+        <v>1.488211695418</v>
       </c>
       <c r="S19">
-        <v>0.0001984748954618694</v>
+        <v>0.0009268460796606113</v>
       </c>
       <c r="T19">
-        <v>0.0001984748954618695</v>
+        <v>0.0009268460796606113</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.01210333333333</v>
+        <v>31.00247266666667</v>
       </c>
       <c r="H20">
-        <v>75.03631</v>
+        <v>93.007418</v>
       </c>
       <c r="I20">
-        <v>0.4618681743218556</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="J20">
-        <v>0.4618681743218557</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N20">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O20">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P20">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q20">
-        <v>23.77585511398</v>
+        <v>14.77671888127089</v>
       </c>
       <c r="R20">
-        <v>213.98269602582</v>
+        <v>132.990469931438</v>
       </c>
       <c r="S20">
-        <v>0.03537249083409245</v>
+        <v>0.08282537764464666</v>
       </c>
       <c r="T20">
-        <v>0.03537249083409247</v>
+        <v>0.08282537764464667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.01210333333333</v>
+        <v>31.00247266666667</v>
       </c>
       <c r="H21">
-        <v>75.03631</v>
+        <v>93.007418</v>
       </c>
       <c r="I21">
-        <v>0.4618681743218556</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="J21">
-        <v>0.4618681743218557</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N21">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O21">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P21">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q21">
-        <v>175.7129856822278</v>
+        <v>76.05140097094089</v>
       </c>
       <c r="R21">
-        <v>1581.41687114005</v>
+        <v>684.462608738468</v>
       </c>
       <c r="S21">
-        <v>0.2614167164831441</v>
+        <v>0.4262777181073959</v>
       </c>
       <c r="T21">
-        <v>0.2614167164831442</v>
+        <v>0.4262777181073959</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.52241133333333</v>
+        <v>3.791227666666666</v>
       </c>
       <c r="H22">
-        <v>52.56723400000001</v>
+        <v>11.373683</v>
       </c>
       <c r="I22">
-        <v>0.3235651166312652</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="J22">
-        <v>0.3235651166312653</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N22">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O22">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P22">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q22">
-        <v>77.63962599819088</v>
+        <v>4.644812465876222</v>
       </c>
       <c r="R22">
-        <v>698.7566339837181</v>
+        <v>41.803312192886</v>
       </c>
       <c r="S22">
-        <v>0.1155082307583784</v>
+        <v>0.02603476114459811</v>
       </c>
       <c r="T22">
-        <v>0.1155082307583785</v>
+        <v>0.02603476114459811</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.52241133333333</v>
+        <v>3.791227666666666</v>
       </c>
       <c r="H23">
-        <v>52.56723400000001</v>
+        <v>11.373683</v>
       </c>
       <c r="I23">
-        <v>0.3235651166312652</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="J23">
-        <v>0.3235651166312653</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N23">
         <v>0.016001</v>
       </c>
       <c r="O23">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P23">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q23">
-        <v>0.09345870124822223</v>
+        <v>0.02022114463144445</v>
       </c>
       <c r="R23">
-        <v>0.841128311234</v>
+        <v>0.181990301683</v>
       </c>
       <c r="S23">
-        <v>0.0001390430349369476</v>
+        <v>0.0001133420723479555</v>
       </c>
       <c r="T23">
-        <v>0.0001390430349369476</v>
+        <v>0.0001133420723479555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.52241133333333</v>
+        <v>3.791227666666666</v>
       </c>
       <c r="H24">
-        <v>52.56723400000001</v>
+        <v>11.373683</v>
       </c>
       <c r="I24">
-        <v>0.3235651166312652</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="J24">
-        <v>0.3235651166312653</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N24">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O24">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P24">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q24">
-        <v>16.656348630772</v>
+        <v>1.807014106505889</v>
       </c>
       <c r="R24">
-        <v>149.907137676948</v>
+        <v>16.263126958553</v>
       </c>
       <c r="S24">
-        <v>0.02478045632625849</v>
+        <v>0.01012854253932195</v>
       </c>
       <c r="T24">
-        <v>0.0247804563262585</v>
+        <v>0.01012854253932195</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.52241133333333</v>
+        <v>3.791227666666666</v>
       </c>
       <c r="H25">
-        <v>52.56723400000001</v>
+        <v>11.373683</v>
       </c>
       <c r="I25">
-        <v>0.3235651166312652</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="J25">
-        <v>0.3235651166312653</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N25">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O25">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P25">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q25">
-        <v>123.0970131020078</v>
+        <v>9.30016707215089</v>
       </c>
       <c r="R25">
-        <v>1107.87311791807</v>
+        <v>83.701503649358</v>
       </c>
       <c r="S25">
-        <v>0.1831373865116914</v>
+        <v>0.05212861231903976</v>
       </c>
       <c r="T25">
-        <v>0.1831373865116914</v>
+        <v>0.05212861231903976</v>
       </c>
     </row>
   </sheetData>
